--- a/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
+++ b/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B8B766-C2D4-3E43-BC40-CF403253A935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6163750-83A7-1A43-AD04-D015FC1C1A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="14160" windowHeight="14780" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14160" windowHeight="14780" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Rubric" sheetId="1" r:id="rId1"/>
+    <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">

--- a/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
+++ b/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CIS195-CourseMaterials\LabStarters\Lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6163750-83A7-1A43-AD04-D015FC1C1A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229D06C-5684-4926-A905-74A78C7013B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14160" windowHeight="14780" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="40668" yWindow="-3048" windowWidth="13044" windowHeight="13752" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -124,9 +133,6 @@
     <t>Rule with a class as a selector in CSS file</t>
   </si>
   <si>
-    <t>At least 4 difffernt kinds of selectors</t>
-  </si>
-  <si>
     <t>At least 8 different property types</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t>Style</t>
+  </si>
+  <si>
+    <t>At least 4 different kinds of selectors</t>
   </si>
 </sst>
 </file>
@@ -531,17 +540,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -563,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -585,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -596,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -607,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -618,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -629,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -640,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -653,12 +662,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -680,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -691,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -702,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -713,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -724,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -735,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -746,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -769,22 +778,22 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -806,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -817,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -828,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -839,18 +848,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -861,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -872,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -883,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -894,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -907,12 +916,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -934,21 +943,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
@@ -956,9 +965,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4">
         <v>8</v>
@@ -967,43 +976,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>

--- a/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
+++ b/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CIS195-CourseMaterials\LabStarters\Lab04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229D06C-5684-4926-A905-74A78C7013B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C45D95-2075-F74A-BBD6-7C9CDA441471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40668" yWindow="-3048" windowWidth="13044" windowHeight="13752" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="580" yWindow="1860" windowWidth="13040" windowHeight="15100" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Elements used:</t>
   </si>
@@ -155,6 +146,9 @@
   </si>
   <si>
     <t>At least 4 different kinds of selectors</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -540,17 +534,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -583,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -594,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -605,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -616,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -627,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -638,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -649,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -662,12 +656,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -678,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -689,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -700,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -711,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -722,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -733,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -744,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -755,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -775,25 +769,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -804,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -815,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -826,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -837,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -848,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -859,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -870,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -881,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -892,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -903,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -916,12 +911,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -932,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -943,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -954,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -965,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -976,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -984,10 +979,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -995,10 +993,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="C25" s="3">
         <f>SUM(C17:C24)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
+++ b/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C45D95-2075-F74A-BBD6-7C9CDA441471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957AF694-5388-234A-A128-261C3090A33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1860" windowWidth="13040" windowHeight="15100" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="6480" yWindow="880" windowWidth="11800" windowHeight="15100" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -26,46 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
-  <si>
-    <t>Elements used:</t>
-  </si>
-  <si>
-    <t>blockquote</t>
-  </si>
-  <si>
-    <t>figure + figcaption</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>nested list</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>Requirements:</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Reviews in sub-folder</t>
-  </si>
-  <si>
-    <t>Three review pages</t>
-  </si>
-  <si>
-    <t>One figure per review</t>
-  </si>
-  <si>
-    <t>Images in sub-folder</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Possible</t>
   </si>
@@ -73,89 +34,62 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Part 1: Practice with elements</t>
-  </si>
-  <si>
-    <t>Part 2: A multi-page web site</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>Correct syntax</t>
-  </si>
-  <si>
-    <t>Correct code format</t>
-  </si>
-  <si>
-    <t>Site has .css file</t>
-  </si>
-  <si>
-    <t>HTML page has a link to the CSS file</t>
-  </si>
-  <si>
-    <t>Each rule has been applied in the HTML</t>
-  </si>
-  <si>
-    <t>HTML page has one embedded style</t>
-  </si>
-  <si>
-    <t>HTML page has one inline style</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Part 1: Styling an existing web page (from lab 2)</t>
-  </si>
-  <si>
-    <t>At least 8 style rules in the file</t>
-  </si>
-  <si>
-    <t>Rule with one element as a selector in CSS file</t>
-  </si>
-  <si>
-    <t>Rule with multiple elements as a selectors in CSS file</t>
-  </si>
-  <si>
-    <t>Rule with an id as a selector in CSS file</t>
-  </si>
-  <si>
-    <t>Rule with a class as a selector in CSS file</t>
-  </si>
-  <si>
-    <t>At least 8 different property types</t>
-  </si>
-  <si>
-    <t>Part 2: Styling an existing four-page web site (from lab 2)</t>
-  </si>
-  <si>
-    <t>Each page uses some of the CSS rules--all the rules get used</t>
-  </si>
-  <si>
-    <t>One embedded style in each of four pages</t>
-  </si>
-  <si>
-    <t>One in-line style in each of four pages</t>
-  </si>
-  <si>
-    <t>Syntax</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>At least 4 different kinds of selectors</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t xml:space="preserve">Part 1: Embedded style </t>
+  </si>
+  <si>
+    <t>Embedded style</t>
+  </si>
+  <si>
+    <t>3 rules</t>
+  </si>
+  <si>
+    <t>in-line style</t>
+  </si>
+  <si>
+    <t>Sub-total:</t>
+  </si>
+  <si>
+    <t>Part 2: Site style sheet</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>External style sheet</t>
+  </si>
+  <si>
+    <t>8 rules</t>
+  </si>
+  <si>
+    <t>Element selector</t>
+  </si>
+  <si>
+    <t>Contextual selector</t>
+  </si>
+  <si>
+    <t>id selector</t>
+  </si>
+  <si>
+    <t>class selector</t>
+  </si>
+  <si>
+    <t>Code style and syntax</t>
+  </si>
+  <si>
+    <t>4 property types</t>
+  </si>
+  <si>
+    <t>linked to each page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +121,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,26 +485,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -568,198 +507,147 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <f>SUM(C3:C6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <f>SUM(B3:B10)</f>
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <f>SUM(C3:C10)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" t="s">
         <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <f>SUM(C10:C19)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <f>SUM(B14:B21)</f>
-        <v>30</v>
-      </c>
-      <c r="C22" s="3">
-        <f>SUM(C14:C21)</f>
-        <v>30</v>
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <f>C7+C20</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -769,270 +657,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <f>SUM(B3:B6)</f>
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <f>SUM(C3:C6)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C16" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <f>SUM(B3:B11)</f>
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <f>SUM(C3:C11)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B20" s="5">
+        <f>SUM(B10:B19)</f>
+        <v>28</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUM(C10:C19)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B7+B20</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="1">
+        <f>C7+C20</f>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3">
-        <f>SUM(B17:B24)</f>
-        <v>30</v>
-      </c>
-      <c r="C25" s="3">
-        <f>SUM(C17:C24)</f>
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
+++ b/LabStarters/Lab04/Lab4Rubric-CIS195.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957AF694-5388-234A-A128-261C3090A33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{908E3E70-3A88-47AC-849D-EEF3494028CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="880" windowWidth="11800" windowHeight="15100" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="72" yWindow="3372" windowWidth="11532" windowHeight="12972" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Possible</t>
   </si>
@@ -83,6 +94,9 @@
   </si>
   <si>
     <t>linked to each page</t>
+  </si>
+  <si>
+    <t>Published to server</t>
   </si>
 </sst>
 </file>
@@ -151,13 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,32 +492,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -505,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -513,47 +533,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <f>SUM(C3:C6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -561,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -569,15 +589,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -585,68 +605,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
-        <f>SUM(C10:C19)</f>
+      <c r="C21" s="4">
+        <f>SUM(C10:C20)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <f>C7+C20</f>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C7+C21</f>
         <v>40</v>
       </c>
     </row>
@@ -657,26 +687,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="3" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -687,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -697,8 +728,9 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -708,48 +740,56 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>SUM(B3:B6)</f>
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>SUM(C3:C6)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -759,8 +799,9 @@
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -770,8 +811,9 @@
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -781,19 +823,21 @@
       <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -803,104 +847,118 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
-        <f>SUM(B10:B19)</f>
+      <c r="B21" s="4">
+        <f>SUM(B10:B20)</f>
         <v>28</v>
       </c>
-      <c r="C20" s="5">
-        <f>SUM(C10:C19)</f>
+      <c r="C21" s="4">
+        <f>SUM(C10:C20)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B7+B20</f>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B7+B21</f>
         <v>40</v>
       </c>
-      <c r="C22" s="1">
-        <f>C7+C20</f>
+      <c r="C23" s="1">
+        <f>C7+C21</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>